--- a/medicine/Mort/Monument_aux_morts_d'Ouveillan/Monument_aux_morts_d'Ouveillan.xlsx
+++ b/medicine/Mort/Monument_aux_morts_d'Ouveillan/Monument_aux_morts_d'Ouveillan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Ouveillan</t>
+          <t>Monument_aux_morts_d'Ouveillan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts d’Ouveillan est situé sur le territoire de la commune d'Ouveillan, dans l’Aude.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Ouveillan</t>
+          <t>Monument_aux_morts_d'Ouveillan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce monument a été inauguré en 1927 par Albert Sarraut, Maurice Sarraut et Léon Blum.
-Le monument aux morts est inscrit au titre des monuments historiques le 18 octobre 2018[1]. Il fait partie d'un ensemble de 42 monuments aux morts de la région Occitanie protégés à cette date pour leur valeur architecturale, artistique ou historique[2].
+Le monument aux morts est inscrit au titre des monuments historiques le 18 octobre 2018. Il fait partie d'un ensemble de 42 monuments aux morts de la région Occitanie protégés à cette date pour leur valeur architecturale, artistique ou historique.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Ouveillan</t>
+          <t>Monument_aux_morts_d'Ouveillan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un monument aux morts pacifiste conçu par le sculpteur René Iché pour honorer la mémoire des victimes de la Première Guerre mondiale. La sculpture s'intitule, Le Souvenir.
 </t>
